--- a/Geräteliste.xlsx
+++ b/Geräteliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46de3ab94f0ebaa8/Desktop/Studium/Mechatronik/2. Semester/Projekt Informatik 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Studium\Mechatronik\2. Semester\Projekt Informatik 2\programm\Infinity_mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{CB4A5365-A690-4234-8A2E-8BE3BEA91A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8488FFE2-2883-4AE4-9E32-1323ADEC622E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABD245-AFBF-4DF5-AFAA-EB2D26596EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0B5423-780A-4011-ACA4-2E16F15B6EB4}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Spiegel </t>
   </si>
   <si>
-    <t>Leds</t>
+    <t>LED-Lichtstreifen</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +452,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
